--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping Template Salesforce.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping Template Salesforce.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicoHahn\snapADDY GmbH\Sebastian Metzger - 01_Product\Technik\Mapping\Vorlagen CRM Mapping\VisitReport\Englisch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F4D6387-4B62-4920-AB64-4661F848FE87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{D1FC447D-FCE2-455D-A99E-F748ABA21EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A15BAACF-FF38-4956-BB98-FB679064C2BB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="128">
   <si>
     <t>Lead</t>
   </si>
@@ -233,12 +235,258 @@
   <si>
     <t>Brochures</t>
   </si>
+  <si>
+    <t>snapADDY</t>
+  </si>
+  <si>
+    <t>API Name</t>
+  </si>
+  <si>
+    <t>snapADDY - Contact Fields</t>
+  </si>
+  <si>
+    <t>Salesforce: Lead</t>
+  </si>
+  <si>
+    <t>snapADDY - Trade Fair Questions</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Question 5</t>
+  </si>
+  <si>
+    <t>Question 6</t>
+  </si>
+  <si>
+    <t>Question 7</t>
+  </si>
+  <si>
+    <t>Question 8</t>
+  </si>
+  <si>
+    <t>Question 9</t>
+  </si>
+  <si>
+    <t>Question 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 2 </t>
+  </si>
+  <si>
+    <t>Automatic Fields</t>
+  </si>
+  <si>
+    <t>Salesforce: Contact</t>
+  </si>
+  <si>
+    <t>Salesforce: Account</t>
+  </si>
+  <si>
+    <t>Salesforce: Custom Entity</t>
+  </si>
+  <si>
+    <t>Question Type</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>multiselect</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>picklist</t>
+  </si>
+  <si>
+    <t>custom 1</t>
+  </si>
+  <si>
+    <t>custom1__c</t>
+  </si>
+  <si>
+    <t>custom 2</t>
+  </si>
+  <si>
+    <t>custom2__c</t>
+  </si>
+  <si>
+    <t>CRM System: Salesforce</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF9DA600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Template Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFE6C36"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Please insert template name]</t>
+    </r>
+  </si>
+  <si>
+    <t>Campaign ID</t>
+  </si>
+  <si>
+    <t>Field Value</t>
+  </si>
+  <si>
+    <t>ID in Template</t>
+  </si>
+  <si>
+    <t>SnapADDY 
+Feld</t>
+  </si>
+  <si>
+    <t>Label in
+Salesforce</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+snapADDY value</t>
+    </r>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>API field name 
+in Salesforce</t>
+  </si>
+  <si>
+    <t>Fieldtype</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>values: 0 = "Mr."; 1 = "Ms."</t>
+  </si>
+  <si>
+    <t>Salesforce: Custom Entity (optional)</t>
+  </si>
+  <si>
+    <t>VR Title</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>Created (Date)</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Title of Template</t>
+  </si>
+  <si>
+    <t>Time when report is created</t>
+  </si>
+  <si>
+    <t>Report created by user</t>
+  </si>
+  <si>
+    <t>Export Type</t>
+  </si>
+  <si>
+    <t>"snapADDY"</t>
+  </si>
+  <si>
+    <t>exportType</t>
+  </si>
+  <si>
+    <t>exportType__c</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +517,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9DA600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFE6C36"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF9DA600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFE6C36"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9DA600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +620,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DA600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE6C36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -448,11 +815,1046 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -491,18 +1893,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -535,12 +1925,475 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF0070C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <horizontal style="thin">
+          <color rgb="FF0070C0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF0070C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <horizontal style="thin">
+          <color rgb="FF0070C0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9DA600"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right style="thick">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color rgb="FF9DA600"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF9DA600"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF9DA600"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FF9DA600"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF9DA600"/>
+      <color rgb="FFFE6C36"/>
+      <color rgb="FFFEFFE1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -550,6 +2403,302 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>949569</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>153866</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Pfeil: nach rechts 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EC3821-329B-401E-9D77-590903C397BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5709138" y="5401009"/>
+          <a:ext cx="394190" cy="203688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64615"/>
+            <a:gd name="adj2" fmla="val 96695"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="9DA600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Pfeil: nach rechts 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CA9A26-2888-446D-954C-9BEE9DDD484A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="981075"/>
+          <a:ext cx="1213485" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64615"/>
+            <a:gd name="adj2" fmla="val 51530"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="9DA600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FE6C36"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>snapADDY nach Salesfoce</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>973015</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>187569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105510</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>197826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Pfeil: nach rechts 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0843272-B443-4557-BFCA-60944E4CA898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5732584" y="7631723"/>
+          <a:ext cx="205157" cy="203688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64615"/>
+            <a:gd name="adj2" fmla="val 79428"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="9DA600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>973015</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105510</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>4396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Pfeil: nach rechts 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564DA0CA-33A0-435E-935A-029DEA885B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5732584" y="9771185"/>
+          <a:ext cx="205157" cy="203688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64615"/>
+            <a:gd name="adj2" fmla="val 79428"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FE6C36"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -851,11 +3000,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -894,55 +3043,55 @@
       <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+    <row r="3" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="163"/>
+      <c r="E4" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="165"/>
+      <c r="G4" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="163"/>
+      <c r="I4" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="163"/>
       <c r="K4" s="14" t="s">
         <v>61</v>
       </c>
@@ -950,20 +3099,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="56" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:13" s="52" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="L5" s="57"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="25" t="s">
@@ -1404,4 +3553,3035 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+  <dimension ref="A1:Y62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="7" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="11" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="15" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="147"/>
+      <c r="K3" s="147"/>
+    </row>
+    <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="127" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="128"/>
+      <c r="G4" s="170" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="170" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="O4" s="170" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170"/>
+      <c r="S4" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="T4" s="167"/>
+      <c r="U4" s="168"/>
+      <c r="W4" s="166" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="139" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="135"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="70"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="70"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="70"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="70"/>
+    </row>
+    <row r="8" spans="1:25" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="149"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="152"/>
+      <c r="G8" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="154"/>
+      <c r="I8" s="155" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="156"/>
+      <c r="K8" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="154"/>
+      <c r="M8" s="155" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="153"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="155"/>
+      <c r="S8" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" s="155"/>
+      <c r="W8" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="106"/>
+      <c r="C9" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="113"/>
+      <c r="E9" s="136"/>
+      <c r="G9" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="61"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="62"/>
+      <c r="S9" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="62"/>
+      <c r="W9" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="106"/>
+      <c r="C10" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="136"/>
+      <c r="G10" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="56"/>
+      <c r="M10" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="61"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="62"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="62"/>
+      <c r="W10" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="106"/>
+      <c r="C11" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="113"/>
+      <c r="E11" s="136"/>
+      <c r="G11" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="56"/>
+      <c r="M11" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="61"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="62"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="62"/>
+      <c r="W11" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="136"/>
+      <c r="G12" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="62"/>
+      <c r="O12" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="61"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="62"/>
+      <c r="W12" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="107"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="136"/>
+      <c r="G13" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="57"/>
+      <c r="M13" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="61"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="62"/>
+      <c r="W13" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="152"/>
+      <c r="G14" s="157" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="158"/>
+      <c r="I14" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="156"/>
+      <c r="K14" s="157" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="158"/>
+      <c r="M14" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="157" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="157"/>
+      <c r="T14" s="158"/>
+      <c r="U14" s="159"/>
+      <c r="W14" s="157" t="s">
+        <v>16</v>
+      </c>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="108"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="136"/>
+      <c r="G15" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="67"/>
+      <c r="M15" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="61"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="62"/>
+      <c r="W15" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="136"/>
+      <c r="G16" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="56"/>
+      <c r="M16" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="61"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="62"/>
+      <c r="W16" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="106"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="136"/>
+      <c r="G17" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="56"/>
+      <c r="M17" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="61"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="62"/>
+      <c r="W17" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="106"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="136"/>
+      <c r="G18" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="56"/>
+      <c r="M18" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="61"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="62"/>
+      <c r="W18" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="106"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="136"/>
+      <c r="G19" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="56"/>
+      <c r="M19" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="61"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="62"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="62"/>
+      <c r="W19" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="149"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="152"/>
+      <c r="G20" s="157" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="158"/>
+      <c r="I20" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="156"/>
+      <c r="K20" s="157" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="158"/>
+      <c r="M20" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="157" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="158"/>
+      <c r="Q20" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="157"/>
+      <c r="T20" s="158"/>
+      <c r="U20" s="159"/>
+      <c r="W20" s="157" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="158"/>
+      <c r="Y20" s="159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="106"/>
+      <c r="C21" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="113"/>
+      <c r="E21" s="136"/>
+      <c r="G21" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="56"/>
+      <c r="I21" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="61"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="62"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="62"/>
+      <c r="W21" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="106"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="136"/>
+      <c r="G22" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="70"/>
+      <c r="O22" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="69"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="70"/>
+      <c r="W22" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="136"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="70"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="70"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="70"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="70"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="84"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="137"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="65"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="65"/>
+    </row>
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="59"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="60"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="60"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="81"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="60"/>
+    </row>
+    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="G26" s="171" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="171" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="171" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" s="171"/>
+      <c r="Q26" s="171"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="169" t="s">
+        <v>84</v>
+      </c>
+      <c r="T26" s="169"/>
+      <c r="U26" s="169"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="169" t="s">
+        <v>84</v>
+      </c>
+      <c r="X26" s="169"/>
+      <c r="Y26" s="169"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="142" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="142" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q27" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="U27" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="X27" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y27" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="124"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="132"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="61"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="62"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="62"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="62"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="62"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="125"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="133"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="61"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="62"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="62"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="62"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="62"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="125"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="133"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="62"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="62"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="62"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="62"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="62"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="125"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="133"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="62"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="62"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="62"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="62"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="62"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="119"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="133"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="62"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="62"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="62"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="62"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="62"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="119"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="133"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="62"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="62"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="62"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="62"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="62"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="119"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="133"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="62"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="62"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="62"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="62"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="62"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="119"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="133"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="62"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="62"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="62"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="62"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="62"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="119"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="133"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="62"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="62"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="62"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="62"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="62"/>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="120"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="134"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="65"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="65"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="65"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="65"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="65"/>
+    </row>
+    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="M38" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="O38" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q38" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="S38" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="U38" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="W38" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="X38" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y38" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="118"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="132"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="62"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="62"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="62"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="62"/>
+      <c r="W39" s="61"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="62"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="119"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="133"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="62"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="62"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="62"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="62"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="62"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="119"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="133"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="62"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="62"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="62"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="62"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="62"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="119"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="133"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="62"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="62"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="62"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="62"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="62"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="119"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="133"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="62"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="62"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="62"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="62"/>
+      <c r="W43" s="61"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="62"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="119"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="133"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="62"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="62"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="62"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="62"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="62"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="119"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="133"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="62"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="62"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="62"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="62"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="62"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="119"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="133"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="62"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="62"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="62"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="62"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="62"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="119"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="133"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="62"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="62"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="62"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="62"/>
+      <c r="W47" s="61"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="62"/>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="120"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="134"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="65"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="65"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="65"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="64"/>
+      <c r="U48" s="65"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="65"/>
+    </row>
+    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="K50" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="M50" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="O50" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="P50" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q50" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="S50" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="T50" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="U50" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="W50" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="X50" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y50" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="173"/>
+      <c r="D51" s="174"/>
+      <c r="E51" s="129"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="62"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="62"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="62"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="62"/>
+      <c r="W51" s="61"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="62"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="176"/>
+      <c r="D52" s="177"/>
+      <c r="E52" s="130"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="62"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="62"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="62"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="62"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="62"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="175" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="176"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="130"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="62"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="62"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="62"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="62"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="62"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="176"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="130"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="62"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="62"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="62"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="62"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="62"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="175" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="176"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="130" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="I55" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="K55" s="61"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="62"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="62"/>
+      <c r="S55" s="61"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="62"/>
+      <c r="W55" s="61"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="62"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="122"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="130"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="62"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="62"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="62"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="62"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="62"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="122"/>
+      <c r="B57" s="175"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="130"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="62"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="62"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="62"/>
+      <c r="S57" s="61"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="62"/>
+      <c r="W57" s="61"/>
+      <c r="X57" s="56"/>
+      <c r="Y57" s="62"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="122"/>
+      <c r="B58" s="175"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="130"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="62"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="62"/>
+      <c r="O58" s="61"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="62"/>
+      <c r="S58" s="61"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="62"/>
+      <c r="W58" s="61"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="62"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="122"/>
+      <c r="B59" s="175"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="177"/>
+      <c r="E59" s="130"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="62"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="62"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="62"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="62"/>
+      <c r="W59" s="61"/>
+      <c r="X59" s="56"/>
+      <c r="Y59" s="62"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="122"/>
+      <c r="B60" s="175"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="177"/>
+      <c r="E60" s="130"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="62"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="62"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="62"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="56"/>
+      <c r="U60" s="62"/>
+      <c r="W60" s="61"/>
+      <c r="X60" s="56"/>
+      <c r="Y60" s="62"/>
+    </row>
+    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="123"/>
+      <c r="B61" s="178"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="180"/>
+      <c r="E61" s="131"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="65"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="65"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="65"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="64"/>
+      <c r="U61" s="65"/>
+      <c r="W61" s="63"/>
+      <c r="X61" s="64"/>
+      <c r="Y61" s="65"/>
+    </row>
+    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="L88owfZpWcPtGDdsgL3Y2WSaaGogKY8FKWTbxDZ/cQOgeWK3/Cldn9sAW0dFbX7fltnxhOfOnwcyanjWStZhHw==" saltValue="AFbOyHnyuTOt8m6JZoD+IQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0"/>
+  <protectedRanges>
+    <protectedRange sqref="A28:X37 A39:Y48 A51:Y61" name="Questionnaire"/>
+    <protectedRange sqref="A7:Q24" name="Contact Fields"/>
+  </protectedRanges>
+  <mergeCells count="20">
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O26:Q26"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A8:AG48">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W51:Y61">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C51="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D51="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S51:U61">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C51="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D51="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O51:Q61">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C51="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D51="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:M61">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C51="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D51="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:I61">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C51="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D51="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3333703A-9303-4886-B895-3476EC286773}">
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="62.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="62"/>
+      <c r="H2" s="93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="182"/>
+      <c r="B3" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="62"/>
+      <c r="H3" s="93"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="182"/>
+      <c r="B4" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="D4" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="182"/>
+      <c r="B5" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="62"/>
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="182"/>
+      <c r="B6" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="62"/>
+      <c r="H6" s="93"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="182"/>
+      <c r="B7" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="93"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="182"/>
+      <c r="B8" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="93"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="182"/>
+      <c r="B9" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="62"/>
+      <c r="H9" s="93"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="182"/>
+      <c r="B10" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="89"/>
+      <c r="D10" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="62"/>
+      <c r="H10" s="93"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="182"/>
+      <c r="B11" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="62"/>
+      <c r="H11" s="93"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="182"/>
+      <c r="B12" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="89"/>
+      <c r="D12" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="62"/>
+      <c r="H12" s="93"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="182"/>
+      <c r="B13" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="62"/>
+      <c r="H13" s="93"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="182"/>
+      <c r="B14" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="62"/>
+      <c r="H14" s="93"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="182"/>
+      <c r="B15" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="93"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="182"/>
+      <c r="B16" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="62"/>
+      <c r="H16" s="93"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="183"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="94"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="181" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="89"/>
+      <c r="D20" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="62"/>
+      <c r="H20" s="93"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="182"/>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="89"/>
+      <c r="D21" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="93"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="182"/>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="89"/>
+      <c r="D22" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="93"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="182"/>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="89"/>
+      <c r="D23" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="62"/>
+      <c r="H23" s="93"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="182"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="62"/>
+      <c r="H24" s="93"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="182"/>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="89"/>
+      <c r="D25" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="93"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="182"/>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="89"/>
+      <c r="D26" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="62"/>
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="182"/>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="89"/>
+      <c r="D27" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="93"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="182"/>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="89"/>
+      <c r="D28" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="62"/>
+      <c r="H28" s="93"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="182"/>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="89"/>
+      <c r="D29" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="93"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="182"/>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="89"/>
+      <c r="D30" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="62"/>
+      <c r="H30" s="93"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="182"/>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="89"/>
+      <c r="D31" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="62"/>
+      <c r="H31" s="93"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="182"/>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="89"/>
+      <c r="D32" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="62"/>
+      <c r="H32" s="93"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="182"/>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="89"/>
+      <c r="D33" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="93"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="182"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="62"/>
+      <c r="H34" s="93"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="183"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="94"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="93"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="182"/>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="62"/>
+      <c r="H39" s="93"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="182"/>
+      <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="62"/>
+      <c r="H40" s="93"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="182"/>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="62"/>
+      <c r="H41" s="93"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="182"/>
+      <c r="B42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="62"/>
+      <c r="H42" s="93"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="182"/>
+      <c r="B43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="62"/>
+      <c r="H43" s="93"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="182"/>
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="62"/>
+      <c r="H44" s="93"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="182"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="93"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="182"/>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="62"/>
+      <c r="H46" s="93"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="182"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="93"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="182"/>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="93"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="182"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="93"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="182"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="93"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="182"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="93"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="182"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="93"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="183"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="94"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="A38:A53"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
+    <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <xsd:import namespace="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8f774076-1ef3-4740-8929-5969f04599b3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Freigabehinweishash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>